--- a/public/export/export.xlsx
+++ b/public/export/export.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webapps\APLESRPrototype\public\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webapps\APLSSRPrototype\public\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,65 +24,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Rationale</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>Key Task</t>
   </si>
   <si>
     <t>Questions</t>
   </si>
   <si>
+    <t>Rev 1</t>
+  </si>
+  <si>
+    <t>Rev 2</t>
+  </si>
+  <si>
+    <t>Rev 3</t>
+  </si>
+  <si>
+    <t>Rev 4</t>
+  </si>
+  <si>
+    <t>Rev 5</t>
+  </si>
+  <si>
+    <t>Rev 6</t>
+  </si>
+  <si>
+    <t>Rev 7</t>
+  </si>
+  <si>
+    <t>Rev 8</t>
+  </si>
+  <si>
+    <t>Rev 9</t>
+  </si>
+  <si>
+    <t>Rev 10</t>
+  </si>
+  <si>
+    <t>Rev 11</t>
+  </si>
+  <si>
     <t>Ave Score</t>
   </si>
   <si>
-    <t>Relationship Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 - The sales rep spends enough time with my business </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2 - The sales rep is professional, corteous and treats me with respect </t>
-  </si>
-  <si>
-    <t>Transaction Service Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3 - The sales rep is responsive to my inquiries </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4 - The sales rep clearly understands my business requirements </t>
-  </si>
-  <si>
     <t>Lead Generation</t>
   </si>
   <si>
-    <t xml:space="preserve">Q5 - The sales rep is knowledgable about APL's services </t>
-  </si>
-  <si>
-    <t>Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6 - Overall, I am satisfied with the sales rep's servies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q7 - Overall, how does the sales rep compare with those of our competition? </t>
-  </si>
-  <si>
-    <t>Satisfaction Score</t>
-  </si>
-  <si>
-    <t>Survey Results</t>
-  </si>
-  <si>
-    <t>{scope}</t>
+    <t xml:space="preserve">Q1 - SSR provides high quality market intelligence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2 - SSR is effective at handling &amp; channeling incoming leads </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3 - SSR is effective at making cold calls to generate leads </t>
+  </si>
+  <si>
+    <t>Agreement Negotiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4 - SSR makes me feel more prepared for calls/negotiations with clients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5 - SSR is helpful in supporting negotiations with Trade and Ops, such as MAR changes and performance feedback to network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6 - SSR processes rate filing requests quickly and efficiently </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7 - SSR processes tariff filing requests quickly and efficiently </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8 - SSR prepares contracts efficiently and accurately </t>
+  </si>
+  <si>
+    <t>Post-close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9 - SSR provides timely and accurate account performance reports </t>
+  </si>
+  <si>
+    <t>Account Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10 - SSR sets up accounts (CAP codes) quickly and accurately </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q11 - SSR completes DG requests quickly and accurately </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12 - SSR processes/validates credit requests quickly </t>
+  </si>
+  <si>
+    <t>Internal Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13 - SSR updates data in CRM on behalf of reps quickly and accurately </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14 - SSR provides timely forecasts to CCAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q15 - SSR executes timely and accurate internal performance reports </t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q16 - SSR handles exception requests independently and effectively </t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17 - The SSR communicates effectively with me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18 - The SSR is responsive to my inquiries/ requests </t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Survey Results - SSR / Trade Analyst John Doe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,28 +178,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -127,68 +209,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -471,123 +508,885 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5">
-        <v>0.98</v>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>3</v>
+      </c>
+      <c r="I22" s="5">
+        <v>3</v>
+      </c>
+      <c r="J22" s="5">
+        <v>3</v>
+      </c>
+      <c r="K22" s="5">
+        <v>3</v>
+      </c>
+      <c r="L22" s="5">
+        <v>3</v>
+      </c>
+      <c r="M22" s="5">
+        <v>3</v>
+      </c>
+      <c r="N22" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
